--- a/resources/databases_models.xlsx
+++ b/resources/databases_models.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -225,13 +225,13 @@
     <t>Singlestore</t>
   </si>
   <si>
-    <t>MS SQL Server_Microsoft Azure SQL Database</t>
-  </si>
-  <si>
     <t>PostgreSQL_ CockroachDB</t>
   </si>
   <si>
     <t>HBase</t>
+  </si>
+  <si>
+    <t>MS_SQL_Server</t>
   </si>
 </sst>
 </file>
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="114" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -850,7 +850,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>11</v>
@@ -1067,8 +1067,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>62</v>
+      <c r="A34" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>8</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>8</v>
